--- a/biology/Médecine/Jean_Carpentier/Jean_Carpentier.xlsx
+++ b/biology/Médecine/Jean_Carpentier/Jean_Carpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Carpentier, né le 3 septembre 1935 à Paris et mort le 9 juillet 2014 à Savigny-le-Temple, est un médecin généraliste français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1968, Jean Carpentier crée le Comité d'action Santé, puis anime le journal Tankonalasanté. Il s'installe comme médecin à Corbeil, et sera particulièrement connu pour un tract sur la sexualité intitulé Apprenons à faire l’amour, qu'il a rédigé et distribué au printemps 1971 dans les lycées de France, et qui lui valut d'être interdit par le conseil de l'ordre d'exercer son métier pendant un an, et d'être condamné par la justice pour « outrage aux bonnes mœurs ».
-Par ailleurs, Mme Mercier, professeur de philosophie à Belfort, a également fait l'objet d'une plainte de la part d'un parent d'élève, pour avoir accepté, à la demande de ses élèves, de commenter ce tract ; mais la procédure s'est terminée par un non-lieu[1]. Ses amis du Groupe information santé prennent sa défense en venant diffuser le tract devant le lycée puis dans d'autres.
-Jean Carpentier participe aussi à la fondation du REPSUD (Réseau des professionnels pour les soins aux usagers de drogues)[2] qui milite pour l'utilisation de produits de substitution aux drogues. Il est également membre de la Commission des stupéfiants et des psychotropes de l'Afssaps[3]. Selon lui il y aurait un lien entre la sexualité et l'usage des drogues : « secrets de famille, pas très jolis, ces histoires d'attouchements sexuels dans l'enfance par le père ou un oncle retrouvées chez beaucoup de toxicomanes, en particulier les femmes ».
-Une émission de télévision du 7 mai 1976 sur FR3 ayant pour sujet la sexualité des Français, traduit l'évolution des mœurs de l'époque ; on y parle de ce tract et le docteur Carpentier s'exprime sur le sujet[4].
-En 1998, Jean Carpentier devient membre de la commission des stupéfiants et des psychotropes de l'agence chargée du médicament. Deux ans plus tard, le ministre Bernard Kouchner le charge d'une mission auprès du directeur général de la santé afin de sensibiliser et de former les médecins généralistes à la substitution aux opiacés[5].
+Par ailleurs, Mme Mercier, professeur de philosophie à Belfort, a également fait l'objet d'une plainte de la part d'un parent d'élève, pour avoir accepté, à la demande de ses élèves, de commenter ce tract ; mais la procédure s'est terminée par un non-lieu. Ses amis du Groupe information santé prennent sa défense en venant diffuser le tract devant le lycée puis dans d'autres.
+Jean Carpentier participe aussi à la fondation du REPSUD (Réseau des professionnels pour les soins aux usagers de drogues) qui milite pour l'utilisation de produits de substitution aux drogues. Il est également membre de la Commission des stupéfiants et des psychotropes de l'Afssaps. Selon lui il y aurait un lien entre la sexualité et l'usage des drogues : « secrets de famille, pas très jolis, ces histoires d'attouchements sexuels dans l'enfance par le père ou un oncle retrouvées chez beaucoup de toxicomanes, en particulier les femmes ».
+Une émission de télévision du 7 mai 1976 sur FR3 ayant pour sujet la sexualité des Français, traduit l'évolution des mœurs de l'époque ; on y parle de ce tract et le docteur Carpentier s'exprime sur le sujet.
+En 1998, Jean Carpentier devient membre de la commission des stupéfiants et des psychotropes de l'agence chargée du médicament. Deux ans plus tard, le ministre Bernard Kouchner le charge d'une mission auprès du directeur général de la santé afin de sensibiliser et de former les médecins généralistes à la substitution aux opiacés.
 </t>
         </is>
       </c>
